--- a/mosip_master/xlsx/device_spec.xlsx
+++ b/mosip_master/xlsx/device_spec.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$6</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -52,25 +49,28 @@
     <t xml:space="preserve">is_active</t>
   </si>
   <si>
+    <t xml:space="preserve">fra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fingerprint Scanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safran Morpho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300 E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To scan fingerprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fingerprint Scanner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safran Morpho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1300 E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To scan fingerprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">High Speed Dual Iris Scanner</t>
@@ -251,22 +251,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.43"/>
@@ -333,28 +329,28 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>327</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>2.34</v>
+        <v>1.12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
@@ -365,25 +361,25 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>736</v>
+        <v>327</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>2.086</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
@@ -391,28 +387,28 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>801</v>
+        <v>327</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>1.02</v>
+        <v>2.34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
@@ -423,39 +419,182 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>920</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="F10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>1.123</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="G11" s="1" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>